--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Component</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>many</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#9657k61/=x839tg</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E8"/>
+  <dimension ref="A4:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +510,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -76,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,18 +125,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,7 +442,7 @@
   <dimension ref="A4:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,13 +528,16 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" location="9657k61/=x839tg"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Component</t>
   </si>
@@ -45,9 +45,6 @@
     <t>http://www.mcmaster.com/#7779k42/=x41zpu</t>
   </si>
   <si>
-    <t>Ball bearing</t>
-  </si>
-  <si>
     <t>all wheels</t>
   </si>
   <si>
@@ -67,6 +64,33 @@
   </si>
   <si>
     <t>http://www.mcmaster.com/#9657k61/=x839tg</t>
+  </si>
+  <si>
+    <t>Spring contact, 4mm</t>
+  </si>
+  <si>
+    <t>plunger, ratchets</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/120220-0206/1003-1012-1-ND/2404035</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#57155k356/=x8nmlr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball bearing for gear </t>
+  </si>
+  <si>
+    <t>Ball bearing for wheels</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#6061k412/=x8nq8v</t>
+  </si>
+  <si>
+    <t>Shaft, 1/4in for gear</t>
+  </si>
+  <si>
+    <t>small iteration gear</t>
   </si>
 </sst>
 </file>
@@ -439,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E9"/>
+  <dimension ref="A4:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,46 +519,85 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
+      <c r="D12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" location="9657k61/=x839tg"/>
+    <hyperlink ref="D11" r:id="rId1" location="9657k61/=x839tg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Component</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>small iteration gear</t>
+  </si>
+  <si>
+    <t>Dowel alignment pins for gear</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#97155a426/=xwsf2k</t>
+  </si>
+  <si>
+    <t>1 pack</t>
   </si>
 </sst>
 </file>
@@ -463,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E12"/>
+  <dimension ref="A4:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,6 +602,20 @@
       </c>
       <c r="D12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Component</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>1 pack</t>
+  </si>
+  <si>
+    <t>Spring wire</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#9666k61/=xxwmq4</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#1327k103/=xxwoeu</t>
+  </si>
+  <si>
+    <t>Steel drive shaft</t>
   </si>
 </sst>
 </file>
@@ -141,19 +153,38 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFB5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -163,12 +194,15 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -472,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E13"/>
+  <dimension ref="A4:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -616,6 +650,25 @@
       </c>
       <c r="E13" s="3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Component</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Steel drive shaft</t>
+  </si>
+  <si>
+    <t>Limit switch</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/ESE-18R11B/P14175SCT-ND/1972893</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E15"/>
+  <dimension ref="A4:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +675,14 @@
       </c>
       <c r="D15" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
